--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C0E71-360E-5C4B-9C89-4F5B4D5FEC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BA357-CFFB-EB48-AC95-007D2BDC5390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3400" windowWidth="46420" windowHeight="22700" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="4780" yWindow="3400" windowWidth="46420" windowHeight="22700" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="285">
   <si>
     <t>type</t>
   </si>
@@ -1346,220 +1346,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>113</v>
       </c>
     </row>

--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BA357-CFFB-EB48-AC95-007D2BDC5390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F39CB-B6FA-6F4A-BB42-287E05E3A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="3400" windowWidth="46420" windowHeight="22700" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="16660" yWindow="500" windowWidth="34180" windowHeight="22700" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="298">
   <si>
     <t>type</t>
   </si>
@@ -94,22 +94,7 @@
     <t>EP</t>
   </si>
   <si>
-    <t>Extreme Economic Event</t>
-  </si>
-  <si>
-    <t>What is an Extreme Economic Event</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
-    <t>What is an Extreme Economic Event?</t>
-  </si>
-  <si>
-    <t>Heavy Econimic event</t>
-  </si>
-  <si>
-    <t>Lifetime Econimic Event</t>
   </si>
   <si>
     <t xml:space="preserve">event desc-1
@@ -124,13 +109,6 @@
 Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
   </si>
   <si>
-    <t>Extreme Economic Event Outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">severly under-prepared
-Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
-  </si>
-  <si>
     <t xml:space="preserve">under-prepared
 Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
   </si>
@@ -150,61 +128,13 @@
     <t>BP</t>
   </si>
   <si>
-    <t>Extreme Biodiversity Event</t>
-  </si>
-  <si>
-    <t>event desc-1</t>
-  </si>
-  <si>
-    <t>event desc-2</t>
-  </si>
-  <si>
-    <t>event desc-3</t>
-  </si>
-  <si>
-    <t>Extreme Biodiversity Event Outcomes</t>
-  </si>
-  <si>
-    <t>severly under-prepared</t>
-  </si>
-  <si>
-    <t>under-prepared</t>
-  </si>
-  <si>
-    <t>fitting</t>
-  </si>
-  <si>
-    <t>overkill</t>
-  </si>
-  <si>
-    <t>extreme overkill</t>
-  </si>
-  <si>
     <t>FP</t>
   </si>
   <si>
-    <t>Extreme Flood Event</t>
-  </si>
-  <si>
-    <t>Extreme Flood Event Outcomes</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
-    <t>Extreme Drought Event</t>
-  </si>
-  <si>
-    <t>Extreme Drought Event Outcomes</t>
-  </si>
-  <si>
     <t>HP</t>
-  </si>
-  <si>
-    <t>Extreme Heat Event</t>
-  </si>
-  <si>
-    <t>Extreme Heat Event Outcomes</t>
   </si>
   <si>
     <t>desc</t>
@@ -320,9 +250,6 @@
 </t>
   </si>
   <si>
-    <t>Opporunities to shop, socialize and be entertained.</t>
-  </si>
-  <si>
     <t>Easy transport links so you can get around and do the above.</t>
   </si>
   <si>
@@ -396,21 +323,9 @@
     <t>Approve a fish farm</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached by an offshore fish-farm. The farm will use modern methods to optimise fish yields. </t>
-  </si>
-  <si>
     <t>Boosts the local economy</t>
   </si>
   <si>
-    <t>Creates local jobs along the fishery value chain</t>
-  </si>
-  <si>
-    <t>Makes high quality fish available for the local community</t>
-  </si>
-  <si>
-    <t>Increase in water pollution from farm by-products</t>
-  </si>
-  <si>
     <t>Not popular with other water users</t>
   </si>
   <si>
@@ -435,30 +350,12 @@
     <t>Approve a monofarm</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached by a commercial farm conglomerate to develop a super-farm on unused farmland. The farm will use modern methods to optimise crop production. </t>
-  </si>
-  <si>
-    <t>out-1</t>
-  </si>
-  <si>
-    <t>out-2</t>
-  </si>
-  <si>
-    <t>out-3</t>
-  </si>
-  <si>
-    <t>out-4</t>
-  </si>
-  <si>
     <t>monofarm.jpg</t>
   </si>
   <si>
     <t>citizen MINKA</t>
   </si>
   <si>
-    <t>This is MINKA</t>
-  </si>
-  <si>
     <t>dashboard.jpg</t>
   </si>
   <si>
@@ -477,16 +374,9 @@
     <t>This sounds like MINKA, but is part of the Sardinia farmer dashboard - although that's ET rather than BD</t>
   </si>
   <si>
-    <t xml:space="preserve">pos-1_x000D_
-</t>
-  </si>
-  <si>
     <t>Protect local biodiversity</t>
   </si>
   <si>
-    <t>This sounds like MINKA</t>
-  </si>
-  <si>
     <t>protect local crops</t>
   </si>
   <si>
@@ -529,9 +419,6 @@
     <t>Municipality has been approached by the local water company to build a large reservoir in a local valley.</t>
   </si>
   <si>
-    <t>Storing winter rains will reduce seasonal flooding</t>
-  </si>
-  <si>
     <t>Dependable water for a generation</t>
   </si>
   <si>
@@ -598,55 +485,30 @@
     <t>Create a drought digital twin</t>
   </si>
   <si>
-    <t>Municipality will install a climate / drought / land use modelling digital twin to evaluate the likelihood and impact of drought scenarios, allowing the town to better prepare for dry periods and long-term planning for drought resilience.</t>
-  </si>
-  <si>
     <t>Install smart water meters</t>
   </si>
   <si>
-    <t>The municipality is looking to install smart water meters,allowing customers to view consumption and highlight leaks within their houses.</t>
-  </si>
-  <si>
     <t>smart_meters.jpg</t>
   </si>
   <si>
     <t>Smart irrigation programme</t>
   </si>
   <si>
-    <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumptions by providing fertigation-on-demand.</t>
-  </si>
-  <si>
     <t>smart_irrigation.jpg</t>
   </si>
   <si>
     <t>Approve construction of a sea wall</t>
   </si>
   <si>
-    <t>The coast road community is plagued by coastal overtopping, causing disruption to the main coast road and flooding local shops and houses. A sea wall should reduce this almost yearly event.</t>
-  </si>
-  <si>
-    <t>Minimise flooding risk to the coast road community</t>
-  </si>
-  <si>
-    <t>Reduce post-flood clean-up costs</t>
-  </si>
-  <si>
     <t>Increase investment into the area</t>
   </si>
   <si>
-    <t xml:space="preserve">Disruption during building works_x000D_
-</t>
-  </si>
-  <si>
     <t>May ruin the view of the bay</t>
   </si>
   <si>
     <t>Only protects locally</t>
   </si>
   <si>
-    <t xml:space="preserve">The project is a disaster! Residents of nearby cliff heights raise a long and costly legal objections as their district is being allowed to erode into the sea, resulting in the project being substaintially delayed. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shortly after the project completes, there is a huge storm. Unlike previous storms, the coast road district doesn’t flood saving the council by not having to perform a large clean-up. </t>
   </si>
   <si>
@@ -671,9 +533,6 @@
     <t>Impact on current transport network</t>
   </si>
   <si>
-    <t>Enviromental impact</t>
-  </si>
-  <si>
     <t>The complex is a titanic success, so much so that there’s gridlock in and around the town as everybody wants to go there making it impossible to travel anywhere.</t>
   </si>
   <si>
@@ -692,27 +551,12 @@
     <t>Approve nature-based flood protection</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality has been approached by a university to host a beaver land management project to help control the river and reduce flooding </t>
-  </si>
-  <si>
-    <t>Nature-based solution to manage water and control flooding</t>
-  </si>
-  <si>
-    <t>Positions council as being open-minded to new solutions in difficult times</t>
-  </si>
-  <si>
     <t>Low-cost</t>
   </si>
   <si>
-    <t>Unproven academic and potentially crackpot idea</t>
-  </si>
-  <si>
     <t>Impact of beavers on local ecosystem</t>
   </si>
   <si>
-    <t>Difficutlt to unroll if people get attached to beavers</t>
-  </si>
-  <si>
     <t>The research is a disaster! The beavers have moved to the local arboretum and destroyed most of the rare saplings. The university abandoned the research as unworkable.</t>
   </si>
   <si>
@@ -731,28 +575,15 @@
     <t>Return seaside golf course to sea</t>
   </si>
   <si>
-    <t>The municipality will stop flood protecting the old sea-side golf course and return it to nature. This will free up finance for other uses. Returning the course to nature will promote biodiversity as it becomes a wetland.</t>
-  </si>
-  <si>
-    <t>Spend limited budgets where they can have the biggest impact</t>
-  </si>
-  <si>
     <t>Creation of a wildlife wetland</t>
   </si>
   <si>
     <t>Reduce motor traffic by the seaside</t>
   </si>
   <si>
-    <t xml:space="preserve">Seen as abandoning parts of the town to nature_x000D_
-</t>
-  </si>
-  <si>
     <t>Anger from golfers</t>
   </si>
   <si>
-    <t>Course will be an eyesore whilst wetland is established</t>
-  </si>
-  <si>
     <t>As the golf course returns to nature, the town is hit by a ‘once in a generation’ storm with extreme tides that rush over the course and undermine the mainline rail track, causing it to be out of use for six months.</t>
   </si>
   <si>
@@ -774,37 +605,21 @@
     <t>Create a flooding digital twin</t>
   </si>
   <si>
-    <t>As per CS6, CS8. Municipality will install a flood modelling digital twin to evaluate the likelihood and impact of potential flooding events, allowing the town to better prepare for flooding and long-term planning for flood resillience.</t>
-  </si>
-  <si>
     <t>Engage in flood plain management</t>
   </si>
   <si>
     <t xml:space="preserve">Municipality has been approached to develop flood plain management for the local river, removing existing developments and allowing land to flood and store flood water. </t>
   </si>
   <si>
-    <t>Reduces flooding to the downstream neighbourhoods</t>
-  </si>
-  <si>
     <t>Increased biodiversity</t>
   </si>
   <si>
     <t>Creation of new recreational activities</t>
   </si>
   <si>
-    <t xml:space="preserve">Disruption during flooding_x000D_
-</t>
-  </si>
-  <si>
-    <t>Loss of land to farmers</t>
-  </si>
-  <si>
     <t>Flooding</t>
   </si>
   <si>
-    <t xml:space="preserve">The project is a disaster! There was a major flood event, and a much larger area of land was flooded. Many farmer's land has been destroyed and polluted waters flow through the town. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> The project was a success. A rare species of butterfly has been seen in the area and bird species have increased. The downstream town also did not suffer flooding in the last heavy rainfall event</t>
   </si>
   <si>
@@ -814,21 +629,6 @@
     <t>Approve installation of cool roofs</t>
   </si>
   <si>
-    <t>Plans have been submitted to paint roofs with white paint to reflect sunlight on hot days,reducing the overall temperature in buildings andsurrounding environment.</t>
-  </si>
-  <si>
-    <t>A nature-based solution to reduce urban heat during heatwaves.</t>
-  </si>
-  <si>
-    <t>Non-envasive</t>
-  </si>
-  <si>
-    <t>Counter-productive for roof-mounted solar panels</t>
-  </si>
-  <si>
-    <t>Heatwaves may not be hot enough or long enough for any real benefit.</t>
-  </si>
-  <si>
     <t>Painting roofs is messy and time-consuming</t>
   </si>
   <si>
@@ -838,35 +638,18 @@
     <t>Approve installation of firebreaks</t>
   </si>
   <si>
-    <t>Municipality is looking to support installing fire breaks in the dry hinterland to stop the frequent heat-induced forest and scrub fires from becoming epidemic and uncontrollable.</t>
-  </si>
-  <si>
     <t>Approve installation of green walls</t>
   </si>
   <si>
     <t>Green walls will lower urban temperatures making towns more habitable, increasing footfall and revenue.</t>
   </si>
   <si>
-    <t>Provide insulation to buildings and reduce urban temperatures </t>
-  </si>
-  <si>
     <t xml:space="preserve">Increased Biodiversity and human wellbeing </t>
   </si>
   <si>
-    <t>Attenuate rainwater and remove air pollutants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic Disruption due to supplies needed_x000D_
-_x000D_
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increased fire risk if green wall dies. </t>
   </si>
   <si>
-    <t>Require ongoing maintenance</t>
-  </si>
-  <si>
     <t>The green walls have not been adequately maintained. Clogged drainage systems have led to sewage overflows and spills and created a right old stink in and around the buildings.</t>
   </si>
   <si>
@@ -891,9 +674,6 @@
     <t>Create a heat digital twin</t>
   </si>
   <si>
-    <t>Municipality will install a climate modelling digital twin to evaluate the likelihood and impact of  extreme temperature scenarios, allowing the town to better prepare for very hot periods and long-term planning for heat resillience.</t>
-  </si>
-  <si>
     <t>Construct a Miyawaki Forest</t>
   </si>
   <si>
@@ -903,13 +683,266 @@
     <t>Embrace heat tourism</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipality is looking to brand the town for 'extreme heat tourism', in order to capture the 'cold euro' from northern European tourists looking for hot holiday action. </t>
-  </si>
-  <si>
     <t>heat_tourism.jpg</t>
   </si>
   <si>
     <t>Being told what to do by adults who have messed the world up, which your generation now has to fix.</t>
+  </si>
+  <si>
+    <t>Creates local jobs</t>
+  </si>
+  <si>
+    <t>Makes high quality fish available</t>
+  </si>
+  <si>
+    <t>Water pollution from farming activities.</t>
+  </si>
+  <si>
+    <t>Makes high quality food available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality has been approached to approve an offshore fish-farm. The farm will use modern methods to optimise fish yields. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality has been approached to approve a commercial super-farm on unused farmland. The farm will use modern methods to optimise crop production. </t>
+  </si>
+  <si>
+    <t>Industrially intensive farming</t>
+  </si>
+  <si>
+    <t>High use of pesticides</t>
+  </si>
+  <si>
+    <t>out-1. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
+    <t>out-2. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
+    <t>out-3. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
+    <t>out-4. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
+    <t>This is MINKA. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
+    <t>This sounds like MINKA. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur.</t>
+  </si>
+  <si>
+    <t>Can't be used with roof mounted solar panels</t>
+  </si>
+  <si>
+    <t>Install fire breaks in the dry hinterland to reduce long-term damage of  heat-induced forest and scrub fires.</t>
+  </si>
+  <si>
+    <t>Reduction in local urban temperatures </t>
+  </si>
+  <si>
+    <t>Disruption during installation</t>
+  </si>
+  <si>
+    <t>Collect rainwater and remove air pollutants</t>
+  </si>
+  <si>
+    <t>Requires ongoing maintenance</t>
+  </si>
+  <si>
+    <t>Reduce need to cool the town</t>
+  </si>
+  <si>
+    <t>Accepting high temperatures</t>
+  </si>
+  <si>
+    <t>Over-reliance on tourism</t>
+  </si>
+  <si>
+    <t>Build local tourist industry</t>
+  </si>
+  <si>
+    <t>Elimination of undesirable local flora and fauna</t>
+  </si>
+  <si>
+    <t>The municipality is looking to install smart water meters, allowing customers to view consumption and highlight leaks within their houses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a disaster! Residents of nearby cliff heights raise a long and costly legal objections as their district is being allowed to erode into the sea, resulting in the project being substantially delayed. </t>
+  </si>
+  <si>
+    <t>Environmental impact</t>
+  </si>
+  <si>
+    <t>Difficult to unroll if people get attached to beavers</t>
+  </si>
+  <si>
+    <t>Municipality will install a climate modelling digital twin to evaluate the likelihood and impact of extreme temperature scenarios, to better prepare for very hot periods and long-term planning for heat resilience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipality is looking to brand the town for 'extreme heat tourism', to attract northern European tourists looking for hot holiday action. </t>
+  </si>
+  <si>
+    <t>Opportunities to shop, socialize and be entertained.</t>
+  </si>
+  <si>
+    <t>Economic Event</t>
+  </si>
+  <si>
+    <t>Biodiversity Event</t>
+  </si>
+  <si>
+    <t>Flood Event</t>
+  </si>
+  <si>
+    <t>Drought Event</t>
+  </si>
+  <si>
+    <t>Heat Event</t>
+  </si>
+  <si>
+    <t>What are extreme economic events?</t>
+  </si>
+  <si>
+    <t>What are extreme biodiversity events?</t>
+  </si>
+  <si>
+    <t>What are extreme flood events?</t>
+  </si>
+  <si>
+    <t>What are extreme drought events?</t>
+  </si>
+  <si>
+    <t>What are extreme heat events?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">severely under-prepared
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t>The municipality will stop flood protecting the old sea-side golf course and return it to nature as a coastal wetland.</t>
+  </si>
+  <si>
+    <t>Eyesore whilst wetland is established</t>
+  </si>
+  <si>
+    <t>Abandoning parts of the town to nature.</t>
+  </si>
+  <si>
+    <t>The coast road community is plagued by coastal overtopping, causing disruption and flooding local shops and houses.</t>
+  </si>
+  <si>
+    <t>Minimise flooding risk to the local community</t>
+  </si>
+  <si>
+    <t>Reduce flood clean-up costs</t>
+  </si>
+  <si>
+    <t>Disruption during building works</t>
+  </si>
+  <si>
+    <t>Manage water and control flooding</t>
+  </si>
+  <si>
+    <t>Unproven idea</t>
+  </si>
+  <si>
+    <t>As per CS6, CS8. Municipality will install a flood modelling digital twin to evaluate the likelihood and impact of potential flooding events, to better prepare for flooding and long-term planning for flood resilience.</t>
+  </si>
+  <si>
+    <t>Council as being open-minded new solutions</t>
+  </si>
+  <si>
+    <t>Municipality has been approached by a university to host a beaver land management project to reduce river flooding.</t>
+  </si>
+  <si>
+    <t>Direct budget to more necessary areas</t>
+  </si>
+  <si>
+    <t>Reduction of seasonal flooding</t>
+  </si>
+  <si>
+    <t>Municipality will install a drought modelling digital twin to evaluate the likelihood and impact of drought scenarios, to better prepare for dry periods and long-term planning for drought resilience.</t>
+  </si>
+  <si>
+    <t>Reduction in water consumption</t>
+  </si>
+  <si>
+    <t>Detection of leaks in customers' properties</t>
+  </si>
+  <si>
+    <t>Insightfdul data for water company</t>
+  </si>
+  <si>
+    <t>Customer distrust of being monitored</t>
+  </si>
+  <si>
+    <t>Time and difficulty of installation</t>
+  </si>
+  <si>
+    <t>Customer disinterest in consumption</t>
+  </si>
+  <si>
+    <t>The municipality is looking to work with local market gardeners to install smart irrigation systems to reduce water consumption.</t>
+  </si>
+  <si>
+    <t>Targetted water consumption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The project is a disaster! There was a major flood , and a much larger area of land was flooded. Farming land has been destroyed and polluted waters flow through the town. </t>
+  </si>
+  <si>
+    <t>Disruption during flooding</t>
+  </si>
+  <si>
+    <t>Reduces flooding</t>
+  </si>
+  <si>
+    <t>Loss of farming land</t>
+  </si>
+  <si>
+    <t>Plans have been submitted to paint roofs with reflective paint, reducing the overall temperature in buildings and surrounding environment.</t>
+  </si>
+  <si>
+    <t>Simple heat management solution</t>
+  </si>
+  <si>
+    <t>Heat-related health risks for tourists</t>
+  </si>
+  <si>
+    <t>Generate revenue from natural resource</t>
+  </si>
+  <si>
+    <t>Non-invasive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires long and hot heatwaves </t>
+  </si>
+  <si>
+    <t>Economic Event Outcomes</t>
+  </si>
+  <si>
+    <t>Biodiversity Event Outcomes</t>
+  </si>
+  <si>
+    <t>Flood Event Outcomes</t>
+  </si>
+  <si>
+    <t>Drought Event Outcomes</t>
+  </si>
+  <si>
+    <t>Heat Event Outcomes</t>
+  </si>
+  <si>
+    <t>Heavy event</t>
+  </si>
+  <si>
+    <t>Extreme Event</t>
+  </si>
+  <si>
+    <t>Lifetime Event</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,202 +1401,202 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1575,15 +1608,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="8" width="22.5" style="7" customWidth="1"/>
     <col min="9" max="11" width="23.6640625" customWidth="1"/>
@@ -1650,252 +1683,264 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>37</v>
+      <c r="F3" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>248</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>37</v>
+      <c r="F4" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>249</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>37</v>
+      <c r="F5" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>250</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>37</v>
+      <c r="F6" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>43</v>
+        <v>294</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1911,14 +1956,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="10.83203125" style="9"/>
+    <col min="2" max="2" width="15.83203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="9" customWidth="1"/>
     <col min="4" max="8" width="10.83203125" style="13"/>
     <col min="9" max="18" width="27" style="9" customWidth="1"/>
@@ -1934,40 +1979,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="L1" s="8" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>12</v>
@@ -1982,18 +2027,18 @@
         <v>15</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="D2" s="13">
         <v>2</v>
@@ -2011,48 +2056,48 @@
         <v>0</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -2070,48 +2115,48 @@
         <v>0</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>58</v>
+        <v>220</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -2129,48 +2174,48 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D5" s="13">
         <v>-1</v>
@@ -2188,48 +2233,48 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="D6" s="13">
         <v>-1</v>
@@ -2247,48 +2292,48 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -2306,45 +2351,45 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
@@ -2362,48 +2407,48 @@
         <v>0</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="D9" s="13">
         <v>5</v>
@@ -2421,48 +2466,48 @@
         <v>0</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D10" s="13">
         <v>-2</v>
@@ -2480,48 +2525,48 @@
         <v>0</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D11" s="13">
         <v>-2</v>
@@ -2539,48 +2584,48 @@
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="D12" s="13">
         <v>-1</v>
@@ -2598,48 +2643,48 @@
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="D13" s="13">
         <v>-1</v>
@@ -2657,48 +2702,48 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="D14" s="13">
         <v>2</v>
@@ -2716,48 +2761,48 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
@@ -2775,48 +2820,48 @@
         <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -2834,48 +2879,48 @@
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="D17" s="13">
         <v>4</v>
@@ -2893,48 +2938,48 @@
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -2952,48 +2997,48 @@
         <v>0</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -3011,48 +3056,48 @@
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="D20" s="13">
         <v>-1</v>
@@ -3070,48 +3115,48 @@
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="D21" s="13">
         <v>-1</v>
@@ -3129,48 +3174,48 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="D22" s="13">
         <v>-1</v>
@@ -3188,42 +3233,42 @@
         <v>0</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="D23" s="13">
         <v>0</v>
@@ -3241,48 +3286,48 @@
         <v>3</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -3300,45 +3345,45 @@
         <v>1</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -3356,48 +3401,48 @@
         <v>2</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="D26" s="13">
         <v>-1</v>
@@ -3415,48 +3460,48 @@
         <v>2</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="D27" s="13">
         <v>-1</v>
@@ -3474,48 +3519,48 @@
         <v>3</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="D28" s="13">
         <v>0</v>
@@ -3533,45 +3578,45 @@
         <v>1</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="68" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -3589,37 +3634,37 @@
         <v>-1</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>58</v>
+        <v>235</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0F39CB-B6FA-6F4A-BB42-287E05E3A526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0DCE5A-F981-C447-AE7D-1E6323ADF043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="500" windowWidth="34180" windowHeight="22700" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="2800" yWindow="4300" windowWidth="34180" windowHeight="22700" activeTab="2" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
     <sheet name="events" sheetId="1" r:id="rId2"/>
-    <sheet name="interventions" sheetId="2" r:id="rId3"/>
+    <sheet name="text" sheetId="4" r:id="rId3"/>
+    <sheet name="interventions" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="302">
   <si>
     <t>type</t>
   </si>
@@ -943,6 +944,18 @@
   </si>
   <si>
     <t>Lifetime Event</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>MAYOR_DETAIL</t>
+  </si>
+  <si>
+    <t>Welcome to the mayoral office. Your role is to lead your team of citizens to ensure that they come to their decisions quickly and efficiently, while exploring the options in enough depth to make reasoned decisions. The reward for success is knowing that you have lead your citizens to make difficult decisions for the good of the town. However, the price of failure is high.</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1044,6 +1057,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1953,6 +1969,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B148F3-02D7-D940-95BD-CF9D568C1F1D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:S29"/>
   <sheetViews>

--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0DCE5A-F981-C447-AE7D-1E6323ADF043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2367EAF-8F89-E642-8011-F47CC9D2C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="4300" windowWidth="34180" windowHeight="22700" activeTab="2" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="21600" yWindow="15460" windowWidth="34180" windowHeight="22700" activeTab="2" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -955,7 +955,10 @@
     <t>MAYOR_DETAIL</t>
   </si>
   <si>
-    <t>Welcome to the mayoral office. Your role is to lead your team of citizens to ensure that they come to their decisions quickly and efficiently, while exploring the options in enough depth to make reasoned decisions. The reward for success is knowing that you have lead your citizens to make difficult decisions for the good of the town. However, the price of failure is high.</t>
+    <t>Welcome to the mayoral office.
+Your role is to lead your team of citizens to ensure that they come to their decisions quickly and efficiently, while exploring the options in enough depth to make reasoned decisions. 
+The reward for success is knowing that you have lead your citizens to make difficult decisions for the good of the town.
+&lt;b&gt;However, the price of failure is high.&lt;b&gt;</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +1993,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>300</v>
       </c>
@@ -2000,6 +2003,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2007,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2367EAF-8F89-E642-8011-F47CC9D2C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBB80FE-E6AD-4B4C-95A0-3EB0D375199C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="15460" windowWidth="34180" windowHeight="22700" activeTab="2" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -354,30 +354,18 @@
     <t>monofarm.jpg</t>
   </si>
   <si>
-    <t>citizen MINKA</t>
-  </si>
-  <si>
     <t>dashboard.jpg</t>
   </si>
   <si>
-    <t>Create a biodiversity digital twin</t>
-  </si>
-  <si>
     <t>Add a digital twin to do digital twin stuff</t>
   </si>
   <si>
     <t>digital_twin.jpg</t>
   </si>
   <si>
-    <t>Create a biodiversity knowledge base</t>
-  </si>
-  <si>
     <t>This sounds like MINKA, but is part of the Sardinia farmer dashboard - although that's ET rather than BD</t>
   </si>
   <si>
-    <t>Protect local biodiversity</t>
-  </si>
-  <si>
     <t>protect local crops</t>
   </si>
   <si>
@@ -597,9 +585,6 @@
     <t xml:space="preserve">Hearing the news,  a former champion golfer buys the old typewriter factory and rejuvenates it into a high-quality course that keen golfers flock to, boosting tourism substantially. </t>
   </si>
   <si>
-    <t>Create a flood support website</t>
-  </si>
-  <si>
     <t>As per CS6. Municipality will install a platform to support citizens with support and guidance for flooding.</t>
   </si>
   <si>
@@ -627,9 +612,6 @@
     <t>flood_plain.jpg</t>
   </si>
   <si>
-    <t>Approve installation of cool roofs</t>
-  </si>
-  <si>
     <t>Painting roofs is messy and time-consuming</t>
   </si>
   <si>
@@ -639,9 +621,6 @@
     <t>Approve installation of firebreaks</t>
   </si>
   <si>
-    <t>Approve installation of green walls</t>
-  </si>
-  <si>
     <t>Green walls will lower urban temperatures making towns more habitable, increasing footfall and revenue.</t>
   </si>
   <si>
@@ -673,9 +652,6 @@
   </si>
   <si>
     <t>Create a heat digital twin</t>
-  </si>
-  <si>
-    <t>Construct a Miyawaki Forest</t>
   </si>
   <si>
     <t>Build a Miyawaki forest</t>
@@ -959,6 +935,30 @@
 Your role is to lead your team of citizens to ensure that they come to their decisions quickly and efficiently, while exploring the options in enough depth to make reasoned decisions. 
 The reward for success is knowing that you have lead your citizens to make difficult decisions for the good of the town.
 &lt;b&gt;However, the price of failure is high.&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>citizen MINKA (CS9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a biodiversity digital twin </t>
+  </si>
+  <si>
+    <t>Create a biodiversity knowledge base (CS9)</t>
+  </si>
+  <si>
+    <t>Protect local biodiversity (CS9)</t>
+  </si>
+  <si>
+    <t>Create a flood support website (CS6)</t>
+  </si>
+  <si>
+    <t>Approve installation of cool roofs (CS1)</t>
+  </si>
+  <si>
+    <t>Approve installation of green walls (CS1)</t>
+  </si>
+  <si>
+    <t>Construct a Miyawaki Forest (CS1)</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1464,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>44</v>
@@ -1542,7 +1542,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>67</v>
@@ -1702,10 +1702,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>18</v>
@@ -1714,13 +1714,13 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>19</v>
@@ -1732,10 +1732,10 @@
         <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>22</v>
@@ -1755,10 +1755,10 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
@@ -1767,13 +1767,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>19</v>
@@ -1785,10 +1785,10 @@
         <v>21</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>22</v>
@@ -1808,10 +1808,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>18</v>
@@ -1820,13 +1820,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>19</v>
@@ -1838,10 +1838,10 @@
         <v>21</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>22</v>
@@ -1861,10 +1861,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>18</v>
@@ -1873,13 +1873,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>19</v>
@@ -1891,10 +1891,10 @@
         <v>21</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>22</v>
@@ -1914,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>18</v>
@@ -1926,13 +1926,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>19</v>
@@ -1944,10 +1944,10 @@
         <v>21</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>22</v>
@@ -1975,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B148F3-02D7-D940-95BD-CF9D568C1F1D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1987,18 +1987,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2011,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2093,7 +2093,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D2" s="13">
         <v>2</v>
@@ -2114,13 +2114,13 @@
         <v>91</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>92</v>
@@ -2152,7 +2152,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D3" s="13">
         <v>3</v>
@@ -2173,31 +2173,31 @@
         <v>91</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>100</v>
@@ -2208,10 +2208,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D4" s="13">
         <v>0</v>
@@ -2229,37 +2229,37 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2267,10 +2267,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="13">
         <v>-1</v>
@@ -2288,37 +2288,37 @@
         <v>0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2326,10 +2326,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="13">
         <v>-1</v>
@@ -2347,37 +2347,37 @@
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2385,10 +2385,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D7" s="13">
         <v>0</v>
@@ -2406,34 +2406,34 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2441,10 +2441,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
@@ -2462,37 +2462,37 @@
         <v>0</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2500,10 +2500,10 @@
         <v>28</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" s="13">
         <v>5</v>
@@ -2521,37 +2521,37 @@
         <v>0</v>
       </c>
       <c r="I9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="O9" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2559,10 +2559,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D10" s="13">
         <v>-2</v>
@@ -2580,37 +2580,37 @@
         <v>0</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="O10" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="S10" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="102" x14ac:dyDescent="0.2">
@@ -2618,10 +2618,10 @@
         <v>28</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D11" s="13">
         <v>-2</v>
@@ -2639,37 +2639,37 @@
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2677,10 +2677,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D12" s="13">
         <v>-1</v>
@@ -2698,37 +2698,37 @@
         <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2736,10 +2736,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D13" s="13">
         <v>-1</v>
@@ -2757,37 +2757,37 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2795,10 +2795,10 @@
         <v>28</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D14" s="13">
         <v>2</v>
@@ -2816,37 +2816,37 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -2854,10 +2854,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D15" s="13">
         <v>2</v>
@@ -2875,37 +2875,37 @@
         <v>0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="119" x14ac:dyDescent="0.2">
@@ -2913,10 +2913,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D16" s="13">
         <v>2</v>
@@ -2934,37 +2934,37 @@
         <v>0</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S16" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="102" x14ac:dyDescent="0.2">
@@ -2972,10 +2972,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D17" s="13">
         <v>4</v>
@@ -2993,37 +2993,37 @@
         <v>0</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O17" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="P17" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="Q17" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="R17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="O17" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="119" x14ac:dyDescent="0.2">
@@ -3031,10 +3031,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -3052,37 +3052,37 @@
         <v>0</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="M18" s="9" t="s">
+      <c r="R18" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="N18" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="O18" s="9" t="s">
+      <c r="S18" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="119" x14ac:dyDescent="0.2">
@@ -3090,10 +3090,10 @@
         <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -3111,37 +3111,37 @@
         <v>0</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J19" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="Q19" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="M19" s="9" t="s">
+      <c r="R19" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="S19" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3149,10 +3149,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D20" s="13">
         <v>-1</v>
@@ -3170,37 +3170,37 @@
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3208,10 +3208,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D21" s="13">
         <v>-1</v>
@@ -3229,37 +3229,37 @@
         <v>0</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="119" x14ac:dyDescent="0.2">
@@ -3267,10 +3267,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D22" s="13">
         <v>-1</v>
@@ -3288,31 +3288,31 @@
         <v>0</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3320,10 +3320,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D23" s="13">
         <v>0</v>
@@ -3341,37 +3341,37 @@
         <v>3</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3379,10 +3379,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D24" s="13">
         <v>2</v>
@@ -3400,34 +3400,34 @@
         <v>1</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="119" x14ac:dyDescent="0.2">
@@ -3435,10 +3435,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -3456,37 +3456,37 @@
         <v>2</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3494,10 +3494,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D26" s="13">
         <v>-1</v>
@@ -3515,37 +3515,37 @@
         <v>2</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3553,10 +3553,10 @@
         <v>29</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D27" s="13">
         <v>-1</v>
@@ -3574,37 +3574,37 @@
         <v>3</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3612,10 +3612,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D28" s="13">
         <v>0</v>
@@ -3633,34 +3633,34 @@
         <v>1</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="85" x14ac:dyDescent="0.2">
@@ -3668,10 +3668,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D29" s="13">
         <v>3</v>
@@ -3689,37 +3689,37 @@
         <v>-1</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2FFB27-0838-9345-939E-886C487A09E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD67F86-D5D3-124B-9395-CE45C90F7814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="1780" windowWidth="25600" windowHeight="22700" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="19260" yWindow="1780" windowWidth="31940" windowHeight="22700" activeTab="3" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -596,16 +596,15 @@
 Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
   <si>
-    <t>&lt;b&gt;Weather saas to record port shutdowns from climatic events&lt;/b&gt;
-Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Air quality Saas&lt;/b&gt;
 Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
   </si>
   <si>
     <t>&lt;b&gt;Environmental SaaS&lt;/b&gt;
 Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
+  </si>
+  <si>
+    <t>A climate change impact monitoring system that integrates with the data from the SAMOA system (which provides oceanic variable predictions for the Port of Valencia) , meteorological variables from both the port's own stations and AEMET (Spanish Weather Agency). Additionally, terminals operating in the port will be equipped with a user-friendly tool, a mobile app, allowing them to quickly and clearly report any events (shutdowns, damages, delays, etc.) caused by climatic conditions. This way, real-time data on the evolution of variables and their impacts on port infrastructures and operations will be available. This, in turn, will assist port authorities in obtaining the most accurate future climate predictions, facilitating proper sizing of new infrastructures and determining when adjustments to current facilities are necessary.</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CF85E2-A384-B04F-B6C7-9233193D8618}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2570,7 +2569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>149</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>154</v>
@@ -2622,7 +2621,7 @@
         <v>150</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>154</v>
@@ -2666,7 +2665,7 @@
         <v>151</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>154</v>

--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E66D97-9CDB-B548-88AB-DC01F6705052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39342A7-23A0-3E44-8FBE-40F76A39D3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="4160" windowWidth="34520" windowHeight="22700" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="10380" yWindow="4660" windowWidth="34520" windowHeight="22700" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -131,10 +131,6 @@
     <t>Student</t>
   </si>
   <si>
-    <t>You live in the town while you are studying.
-You may move away for work, if there's nothing suitable here"</t>
-  </si>
-  <si>
     <t>The idea of having money and freedom but are unsure how to get it.</t>
   </si>
   <si>
@@ -594,6 +590,11 @@
   </si>
   <si>
     <t xml:space="preserve">event desc-3. Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t>You're a student and you're living and studying in the town. The local college is great, but you really like all the outdoor ammenities.
+You're not sure about the future, you like the town but you need to have somewhere where you can get a good job and get on.
+12345 12345 12345 12345 12345 12345 12345 12345</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,182 +1087,183 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="170" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1269,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:J2"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1342,49 +1344,49 @@
         <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="H2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1392,49 +1394,49 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="H3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1442,49 +1444,49 @@
         <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="H4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="K4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1492,49 +1494,49 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="H5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="K5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1542,49 +1544,49 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="H6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1612,18 +1614,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>15</v>
@@ -1701,13 +1703,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="12">
         <v>2</v>
@@ -1725,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -1745,13 +1747,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -1769,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -1789,13 +1791,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -1833,13 +1835,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -1857,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -1877,13 +1879,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
@@ -1901,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -1921,13 +1923,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -1945,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -1965,13 +1967,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -1989,19 +1991,19 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2009,13 +2011,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -2033,19 +2035,19 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2053,13 +2055,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -2077,19 +2079,19 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2097,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -2121,19 +2123,19 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2141,13 +2143,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -2165,19 +2167,19 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2185,13 +2187,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -2209,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2229,13 +2231,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -2253,19 +2255,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N14" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2273,13 +2275,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -2297,19 +2299,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2317,13 +2319,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
@@ -2341,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N16" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="136" x14ac:dyDescent="0.2">
@@ -2361,13 +2363,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -2385,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N17" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2405,13 +2407,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -2429,19 +2431,19 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N18" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2449,13 +2451,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="12">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2493,13 +2495,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -2517,19 +2519,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="221" x14ac:dyDescent="0.2">
@@ -2537,13 +2539,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="J21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N21" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2581,13 +2583,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="12">
         <v>0</v>
@@ -2605,19 +2607,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N22" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="119" x14ac:dyDescent="0.2">
@@ -2625,13 +2627,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
@@ -2649,19 +2651,19 @@
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="N23" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/proto-2/build/game.xlsx
+++ b/proto-2/build/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39342A7-23A0-3E44-8FBE-40F76A39D3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1794ED-6633-F54C-99D2-98DB299C4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="4660" windowWidth="34520" windowHeight="22700" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
+    <workbookView xWindow="0" yWindow="3540" windowWidth="29860" windowHeight="28300" activeTab="1" xr2:uid="{56290CDE-7A28-0646-8FE0-EB818C61A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="personas" sheetId="3" r:id="rId1"/>
@@ -319,21 +319,6 @@
     <t>Heat Event</t>
   </si>
   <si>
-    <t>What are extreme economic events?</t>
-  </si>
-  <si>
-    <t>What are extreme biodiversity events?</t>
-  </si>
-  <si>
-    <t>What are extreme flood events?</t>
-  </si>
-  <si>
-    <t>What are extreme drought events?</t>
-  </si>
-  <si>
-    <t>What are extreme heat events?</t>
-  </si>
-  <si>
     <t>Economic Event Outcomes</t>
   </si>
   <si>
@@ -349,13 +334,7 @@
     <t>Heat Event Outcomes</t>
   </si>
   <si>
-    <t>Heavy event</t>
-  </si>
-  <si>
     <t>Extreme Event</t>
-  </si>
-  <si>
-    <t>Lifetime Event</t>
   </si>
   <si>
     <t>ID</t>
@@ -595,6 +574,27 @@
     <t>You're a student and you're living and studying in the town. The local college is great, but you really like all the outdoor ammenities.
 You're not sure about the future, you like the town but you need to have somewhere where you can get a good job and get on.
 12345 12345 12345 12345 12345 12345 12345 12345</t>
+  </si>
+  <si>
+    <t>Minor Event</t>
+  </si>
+  <si>
+    <t>Average Event</t>
+  </si>
+  <si>
+    <t>What are economic events?</t>
+  </si>
+  <si>
+    <t>What are flood events?</t>
+  </si>
+  <si>
+    <t>What are biodiversity events?</t>
+  </si>
+  <si>
+    <t>What are drought events?</t>
+  </si>
+  <si>
+    <t>What are heat events?</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EA64C3-F308-BF41-8E2F-3172F88D6922}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1092,7 +1092,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>30</v>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373892CA-C8BA-3B48-B2C8-DDF1BF5868C8}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,7 +1312,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1347,46 +1347,46 @@
         <v>87</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1397,46 +1397,46 @@
         <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1447,46 +1447,46 @@
         <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1497,46 +1497,46 @@
         <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="4" customFormat="1" ht="187" x14ac:dyDescent="0.2">
@@ -1547,46 +1547,46 @@
         <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1614,18 +1614,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>15</v>
@@ -1703,13 +1703,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E2" s="12">
         <v>2</v>
@@ -1747,13 +1747,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E4" s="12">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -1879,13 +1879,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E6" s="12">
         <v>0</v>
@@ -1923,13 +1923,13 @@
         <v>18</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E9" s="12">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" s="12">
         <v>0</v>
@@ -2099,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
@@ -2187,13 +2187,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
@@ -2231,13 +2231,13 @@
         <v>19</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -2275,13 +2275,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
@@ -2319,13 +2319,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E16" s="12">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E17" s="12">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12">
         <v>0</v>
@@ -2495,13 +2495,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E20" s="12">
         <v>0</v>
@@ -2539,13 +2539,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E21" s="12">
         <v>0</v>
@@ -2583,13 +2583,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E22" s="12">
         <v>0</v>
@@ -2627,13 +2627,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E23" s="12">
         <v>0</v>
